--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_009.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_009.xlsx
@@ -31,333 +31,333 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295038EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(700000AK2.02) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Breakers, relays</t>
-  </si>
-  <si>
-    <t>(295018AA2.03) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295001AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Core flow response</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA1.02) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Emergency generators</t>
-  </si>
-  <si>
-    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
-  </si>
-  <si>
-    <t>(295025EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Safety/relief valve tailpipe temperature/pressure relationships</t>
+    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
+  </si>
+  <si>
+    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295024EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Containment spray</t>
+  </si>
+  <si>
+    <t>(295038EK2.11) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) MSIV leakage control</t>
+  </si>
+  <si>
+    <t>(295001AA1.03) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(600000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit for use of respirators</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
+  </si>
+  <si>
+    <t>(295026EK2.04) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(295006AA1.06) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295037EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Shutdown conditions</t>
+  </si>
+  <si>
+    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295030EK2.02) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
+  </si>
+  <si>
+    <t>(295003AA1.07) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
   </si>
   <si>
     <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
   </si>
   <si>
-    <t>(295027EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(600000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm</t>
-  </si>
-  <si>
-    <t>(295005AK2.01) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295019AK2.19) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295037EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295024EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Suppression pool spray</t>
-  </si>
-  <si>
-    <t>(295022AA1.04) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+    <t>(295034EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.5 / 45.6) Manual SCRAM</t>
   </si>
   <si>
     <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
   </si>
   <si>
-    <t>(295033EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
-  </si>
-  <si>
-    <t>(295017AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) System isolations</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A4.05) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(211000K4.05) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dispersal of boron upon injection into the vessel</t>
-  </si>
-  <si>
-    <t>(261000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(212000K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
-  </si>
-  <si>
-    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
-  </si>
-  <si>
-    <t>(262001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Load currents</t>
-  </si>
-  <si>
-    <t>(215005A2.07) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels flow mismatch</t>
-  </si>
-  <si>
-    <t>(259002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Instrument air systems</t>
-  </si>
-  <si>
-    <t>(205000A3.02) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Pump operation</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291004K1.21) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Net positive suction head (NSPH) requirements for a positive displacement pump</t>
-  </si>
-  <si>
-    <t>(203000K4.15) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Pump runout protection</t>
-  </si>
-  <si>
-    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(217000K2.01) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(209001K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ADS logic</t>
-  </si>
-  <si>
-    <t>(223002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(215003A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SCRAM and rod block trip setpoints</t>
-  </si>
-  <si>
-    <t>(209002A2.21) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent initiation</t>
-  </si>
-  <si>
-    <t>(215004K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Trip units</t>
-  </si>
-  <si>
-    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
-  </si>
-  <si>
-    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(211000K4.07) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) RWCU isolation</t>
-  </si>
-  <si>
-    <t>(261000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(239001K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.7 / 45.7) Moisture separator/reheaters</t>
-  </si>
-  <si>
-    <t>(259001A3.08) Ability to monitor automatic operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.7 / 45.7) Turbine speed: TDRFPs-only</t>
-  </si>
-  <si>
-    <t>(290001A4.12) Ability to manually operate and/or monitor the (SF5 SC) SECONDARY CONTAINMENT in the control room: (CFR: 41.7 / 45.5 to 45.8) Surveillance testing</t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (291002K1.01) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Operational characteristics of venturis and orifices</t>
-  </si>
-  <si>
-    <t>(272000K4.04) Knowledge of (SF7, SF9 RMS) RADIATION MONITORING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Process radiation monitoring surveillance testing</t>
-  </si>
-  <si>
-    <t>(239003K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation system</t>
-  </si>
-  <si>
-    <t>(256000K2.02) (SF2 CDS) CONDENSATE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(201001K3.01) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Recirculation pumps</t>
-  </si>
-  <si>
-    <t>(241000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Turbine inlet pressure vs. turbine load</t>
-  </si>
-  <si>
-    <t>(234000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.5 / 45.5) Spent fuel pool level</t>
-  </si>
-  <si>
-    <t>(204000A2.07) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of instrument air systems</t>
-  </si>
-  <si>
-    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+    <t>(295036EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Radwaste system</t>
+  </si>
+  <si>
+    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
+  </si>
+  <si>
+    <t>(295013AA2.03) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Open/leaking Safety relief valve</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
+  </si>
+  <si>
+    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
+  </si>
+  <si>
+    <t>(217000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
+  </si>
+  <si>
+    <t>(209001K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
+  </si>
+  <si>
+    <t>(262001A2.02) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
+  </si>
+  <si>
+    <t>(211000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Accumulator operation</t>
+  </si>
+  <si>
+    <t>(400000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW pressure</t>
+  </si>
+  <si>
+    <t>(259002K4.08) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) TDRFP speed control</t>
+  </si>
+  <si>
+    <t>(215003K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Detectors</t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(203000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Testable check valves</t>
+  </si>
+  <si>
+    <t>(261000K2.01) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system fans</t>
+  </si>
+  <si>
+    <t>(215005K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) IRM system</t>
+  </si>
+  <si>
+    <t>(223002K3.06) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Turbine building radiation</t>
+  </si>
+  <si>
+    <t>(218000A2.04) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS failure to initiate</t>
+  </si>
+  <si>
+    <t>(264000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Fuel consumption rate</t>
+  </si>
+  <si>
+    <t>(510000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Service water temperatures</t>
+  </si>
+  <si>
+    <t>(205000K4.04) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump NPSH</t>
+  </si>
+  <si>
+    <t>(239002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Pneumatics supply</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291002K1.24) SENSORS AND DETECTORS (CFR: 41.7) (RADIATION DETECTION) Use of portable and personal radiation monitoring instruments</t>
+  </si>
+  <si>
+    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(263000A4.06) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfers</t>
+  </si>
+  <si>
+    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
+  </si>
+  <si>
+    <t>(217000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(209001K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(288000A3.02) Ability to monitor automatic operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.7 / 45.7) Differential pressure control</t>
+  </si>
+  <si>
+    <t>(268000A4.01) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Sump integrators</t>
+  </si>
+  <si>
+    <t>(233000K2.01) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel pool cooling pumps</t>
+  </si>
+  <si>
+    <t>(239003K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(510001K3.08) Knowledge of the effect that a loss or malfunction of the (SF8 CWS*) CIRCULATING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Feedwater system</t>
+  </si>
+  <si>
+    <t>(286000A2.06) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low fire main pressure</t>
+  </si>
+  <si>
+    <t>(226001K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
+  </si>
+  <si>
+    <t>(230000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.5 / 45.5) Emergency generator loading</t>
+  </si>
+  <si>
+    <t>(223001K4.07) Knowledge of (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES design features and/or interlocks that provide for the following: (CFR: 41.7) Prevents localized heating of suppression pool (SRV steam quenchers)</t>
+  </si>
+  <si>
+    <t>(215001K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.7 / 45.7) Containment/drywell pressure (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292006K1.04) FISSION PRODUCT POISONS (CFR: 41.1) Describe the removal of xenon-135</t>
+  </si>
+  <si>
+    <t>(293006K1.10) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define cavitation</t>
+  </si>
+  <si>
+    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(500000EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for containment</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295010AA2.02) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(262001A2.06) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of a plant bus</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(400000A2.11) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to reactor recirculation pump</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003A2.08) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Improper overlap</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(201003A2.01) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Stuck rod</t>
+  </si>
+  <si>
+    <t>(234000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.5 / 45.5) Core reactivity level</t>
+  </si>
+  <si>
+    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
   </si>
   <si>
     <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(292006K1.13) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor shutdown</t>
-  </si>
-  <si>
-    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293009K1.11) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Explain the basis of the limiting condition for APLGHR</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(212000A2.11) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(286000A2.01) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System logic failure</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(510001A2.01) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/Motor failure</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
     <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
+    <t>K2</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295022</t>
+    <t>295034</t>
   </si>
   <si>
     <t>295011</t>
   </si>
   <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>205000</t>
   </si>
   <si>
     <t>239002</t>
   </si>
   <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>212000</t>
+    <t>209002</t>
   </si>
   <si>
     <t>262002</t>
   </si>
   <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>290001</t>
+    <t>202001</t>
   </si>
   <si>
     <t>288000</t>
   </si>
   <si>
-    <t>272000</t>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>233000</t>
   </si>
   <si>
     <t>239003</t>
   </si>
   <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
     <t>256000</t>
   </si>
   <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>241000</t>
+    <t>201003</t>
   </si>
   <si>
     <t>234000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>510001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1548,7 +1548,7 @@
         <v>3.2</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1956,7 +1956,7 @@
         <v>2.8</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
